--- a/src/test/java/ru/fds/tavrzcms3/testdata/cost_history_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/cost_history_update.xlsx
@@ -529,7 +529,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,6 +619,9 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
+      <c r="C3" s="2">
+        <v>41256</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
@@ -644,6 +647,9 @@
       </c>
       <c r="C4" s="2">
         <v>41711</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
       <c r="E4">
         <v>4</v>
